--- a/results/Preliminaries-Sweden.xlsx
+++ b/results/Preliminaries-Sweden.xlsx
@@ -56,31 +56,31 @@
     <t>2018</t>
   </si>
   <si>
-    <t>C -</t>
+    <t>C - Centre Party (Centerpartiet, C)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)</t>
   </si>
   <si>
-    <t>L -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)</t>
   </si>
   <si>
-    <t>M -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>NYD</t>
+    <t>NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>S -</t>
+    <t>S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>V -</t>
+    <t>V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">MP </t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">SD </t>
+    <t>SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
     <t>Key</t>
@@ -116,934 +116,934 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)</t>
   </si>
   <si>
-    <t>C -+L -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)</t>
   </si>
   <si>
-    <t>C -+M -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>C -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)</t>
   </si>
   <si>
-    <t>KD +M -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>KD +NYD</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>KD +S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>L -+NYD</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>L -+S -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>L -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+NYD</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>M -+S -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>M -+V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>NYD+S -</t>
+    <t>NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>NYD+V -</t>
+    <t>NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>S -+V -</t>
+    <t>S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)</t>
   </si>
   <si>
-    <t>C -+KD +M -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>C -+KD +NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+KD +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>C -+L -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+L -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+L -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+M -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+M -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>KD +L -+NYD</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>KD +L -+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +L -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+NYD</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>KD +M -+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +M -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +NYD+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +NYD+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+NYD</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>L -+M -+S -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>L -+M -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+NYD+S -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>L -+NYD+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+S -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+NYD+S -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>M -+NYD+V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+S -+V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>NYD+S -+V -</t>
+    <t>NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)</t>
   </si>
   <si>
-    <t>C -+KD +L -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+KD +L -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +L -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+KD +M -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +M -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+L -+M -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+L -+M -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+L -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+M -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+NYD</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>KD +L -+M -+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +L -+M -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+NYD+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +L -+NYD+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+NYD+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +M -+NYD+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +NYD+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+NYD+S -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>L -+M -+NYD+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+S -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+NYD+S -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+NYD+S -+V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+NYD</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +L -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +M -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+L -+M -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+NYD+S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +L -+M -+NYD+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+NYD+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+NYD+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+NYD+S -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+NYD+S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+NYD+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+NYD+S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+NYD+S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+NYD - New Democracy (Ny Demokrati, NYD)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +MP </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+MP </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">M -+MP </t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>MP +S -</t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>MP +V -</t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+M -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>C -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+MP </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +M -+MP </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>KD +MP +S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +MP +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+M -+MP </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>L -+MP +S -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>L -+MP +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+MP +S -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>M -+MP +V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>MP +S -+V -</t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +M -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>C -+KD +MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+M -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>C -+L -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+L -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+M -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+M -+MP </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>KD +L -+MP +S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +L -+MP +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+MP +S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +M -+MP +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +MP +S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+MP +S -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>L -+M -+MP +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+MP +S -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+MP +S -+V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+M -+MP </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)</t>
   </si>
   <si>
-    <t>C -+KD +L -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +L -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +M -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+L -+M -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+MP +S -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>KD +L -+M -+MP +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+MP +S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+MP +S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+MP +S -+V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+MP +S -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+MP +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+MP +S -+V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+MP +S -+V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">M -+SD </t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">MP +SD </t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">S -+SD </t>
+    <t>S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>SD +V -</t>
+    <t>SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+M -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +M -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +MP +SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+M -+SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+MP +SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+S -+SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>L -+SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">M -+MP +SD </t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">M -+S -+SD </t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>M -+SD +V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">MP +S -+SD </t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>MP +SD +V -</t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>S -+SD +V -</t>
+    <t>S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +M -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+M -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+L -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+M -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+M -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+M -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+M -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+MP +SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +L -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +M -+MP +SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +M -+S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +M -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +MP +S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +MP +SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+M -+MP +SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+M -+S -+SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>L -+M -+SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+MP +S -+SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>L -+MP +SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+S -+SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">M -+MP +S -+SD </t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>M -+MP +SD +V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+S -+SD +V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>MP +S -+SD +V -</t>
+    <t>MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+M -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +L -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +M -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +M -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +M -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+M -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+M -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+L -+M -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+L -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+M -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+M -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+M -+MP +SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+M -+S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +L -+M -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+MP +S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +L -+MP +SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +M -+MP +S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +M -+MP +SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +MP +S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">L -+M -+MP +S -+SD </t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>L -+M -+MP +SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+S -+SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+MP +S -+SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>M -+MP +S -+SD +V -</t>
+    <t>M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+M -+MP +SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+M -+S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +L -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +M -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +M -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+L -+M -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+L -+M -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+M -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">KD +L -+M -+MP +S -+SD </t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>KD +L -+M -+MP +SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+MP +S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +M -+MP +S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>L -+M -+MP +S -+SD +V -</t>
+    <t>L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t xml:space="preserve">C -+KD +L -+M -+MP +S -+SD </t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+MP +SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +M -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+L -+M -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>KD +L -+M -+MP +S -+SD +V -</t>
+    <t>KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
   <si>
-    <t>C -+KD +L -+M -+MP +S -+SD +V -</t>
+    <t>C - Centre Party (Centerpartiet, C)+KD - Christian Democrats (Kristdemokraterna, KD)+L - Liberals (Liberalerna, L), known until  as People's Party Liberals (FP, Folkpartiet liberalerna)+M - Moderate Party (Moderata samlingspartiet, M)+MP - Green Party (Miljöpartiet de gröna, MP)+S - Social Democrats (Socialdemokraterna, S)+SD - Sweden Democrats (Sverigedemokraterna, SD)+V - Left Party (Vänsterpartiet, V)</t>
   </si>
 </sst>
 </file>
